--- a/medicine/Enfance/Peter_et_Wendy/Peter_et_Wendy.xlsx
+++ b/medicine/Enfance/Peter_et_Wendy/Peter_et_Wendy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Peter et Wendy (en anglais : Peter and Wendy) ou Peter Pan (dont  le titre complet est Peter Pan, ou le garçon qui ne voulait pas grandir, en anglais : Peter Pan; or, the Boy Who Wouldn't Grow Up) est l’œuvre la plus célèbre de l’écrivain écossais J. M. Barrie.
@@ -513,7 +525,9 @@
           <t>Pièce de théâtre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pièce est jouée pour la première fois à Londres le 27 décembre 1904 avec Nina Boucicault, la fille du dramaturge Dion Boucicault, dans le rôle-titre. Elle est montée dès 1905 à Broadway avec Maude Adams dans le rôle de Peter Pan, puis dans d'autres théâtres avec des actrices telles que Marilyn Miller et Eva Le Gallienne. Par la suite la pièce a donné lieu à des adaptations sous forme de pantomimes, de comédies musicales, d'émissions télévisées spéciales, et de plusieurs films, dont un film muet de 1924, un dessin animé long-métrage de Walt Disney de 1953, et un film d’action de 2003. Au Royaume-Uni, elle n'est plus que rarement montée sous sa forme originale, mais les pantomimes sont souvent organisées durant la période de Noël. Aux États-Unis, la version originale a également été supplantée par la version musicale de 1954, qui est devenue populaire à la télévision.
 </t>
@@ -544,7 +558,9 @@
           <t>Roman</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est publié pour la première fois en 1911 par Hodder &amp; Stoughton au Royaume-Uni et par Charles Scribner’s Sons aux États-Unis. L'édition originale contient un frontispice et 11 plaques en demi-teinte de l'artiste Francis Donkin Bedford (en). Le roman a d'abord été abrégé par May Byron en 1915, avec la permission de Barrie, et publié sous le titre Peter Pan et Wendy, utilisé pour la première fois. Cette version est ensuite illustrée par Mabel Lucie Attwell en 1921. Le roman est généralement publié sous ce titre ou tout simplement sous celui de Peter Pan. Le script de la pièce, que Barrie n’a pas cessé de réviser depuis sa première représentation, a été publié en 1928. En 1929, Barrie lègue les droits d'auteurs de Peter Pan au Great Ormond Street Hospital, un hôpital pour enfants londonien.
 </t>
@@ -575,9 +591,11 @@
           <t>Analyses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs analystes et spécialistes de Barrie indiquent que Peter Pan reste l'histoire de Wendy (avant d'être celle du héros titre) et l'interprètent comme un texte féministe[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs analystes et spécialistes de Barrie indiquent que Peter Pan reste l'histoire de Wendy (avant d'être celle du héros titre) et l'interprètent comme un texte féministe,.
 </t>
         </is>
       </c>
@@ -606,11 +624,48 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette œuvre a été adaptée de nombreuses fois, au cinéma, à la télévision, en bande dessinée et en Web-série.
-Littérature
-1990-2004 : Peter Pan, série de bande dessinée en six volumes de Régis Loisel (Vents d'Ouest).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette œuvre a été adaptée de nombreuses fois, au cinéma, à la télévision, en bande dessinée et en Web-série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1990-2004 : Peter Pan, série de bande dessinée en six volumes de Régis Loisel (Vents d'Ouest).
 2004 : Les ombres de Peter Pan, anthologie de vingt-et-une nouvelles établie par Richard Comballot et centrée sur l'univers de Barrie (Mnémos).
 2006 : L'Habit rouge de Peter Pan, roman jeunesse de Geraldine McCaughrean, seule suite officielle reconnue par les ayants droit de Barrie (Pocket Jeunesse).
 2006 : Les Terribles Aventures du Futur Capitaine Crochet, roman jeunesse de James V. Hart, préquelle aux aventures imaginées par Barrie centrée sur le jeune J.A.S. Hook (Flammarion).
@@ -624,9 +679,43 @@
 2019 : Twisted Tale : Tout droit jusqu'au matin, roman pour adolescents d'Elizabeth J. Braswell. Basée sur le film d'animation des studios Disney et l'œuvre de Barrie, la trame propose une histoire alternative où Wendy se serait rendue au Pays imaginaire en compagnie du capitaine Crochet (Hachette).
 2020 : Tant que vole la poussière, roman de Cameron Valciano, suite du roman original, centrée sur les aventures d'une Wendy adulte épaulée par le Capitaine Hook. Peter Pan y est présenté comme l'antagoniste et la déité vénérée du Pays Imaginaire (Magic Mirror éditions).
 2021 : L'Enfant Pan, roman pour adolescents d'Arnaud Druelle, préquelle aux aventures imaginées par Barrie (Gulf Stream).
-2021 : Hooked, dark romance d'Emily McIntire (auto-édition).
-Cinéma
-1924 : Peter Pan de Herbert Brenon.
+2021 : Hooked, dark romance d'Emily McIntire (auto-édition).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1924 : Peter Pan de Herbert Brenon.
 1953 : Peter Pan de Clyde Geronimi, Wilfred Jackson et Hamilton Luske.
 1962 : Peter Pan de Paul Verhoeven.
 1987 : Peter Pan de Leonid Netchaïev.
@@ -635,16 +724,84 @@
 2003 : Peter Pan de P. J. Hogan.
 2004 : Neverland de Marc Forster, adapté de la pièce The Man Who Was Peter Pan d'Allan Knee (1998) et centré sur la création de Peter Pan.
 2015 : Pan de Joe Wright.
-2022 : Peter Pan et Wendy (Peter Pan &amp; Wendy) de David Lowery.
-Télévision
-1990 : Peter Pan et les Pirates de Sam Graham, Chris Hubbell et David Bennett Carren.
+2022 : Peter Pan et Wendy (Peter Pan &amp; Wendy) de David Lowery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1990 : Peter Pan et les Pirates de Sam Graham, Chris Hubbell et David Bennett Carren.
 1989 : Peter Pan de Yoshio Kuroda.
 2011 : Neverland, mini-série de Nick Willing et préquelle au texte de Barrie.
 2012 : Les Nouvelles Aventures de Peter Pan de DQ Enternainement, Method Animation et De Agostini.
 2014 : Once Upon a time, série créée par Edward Kitsis et Adam Horowitz. Peter Pan est l'antagoniste de la première partie de la saison 3 ; il retient Wendy prisonnière. Killian Jones, le Capitaine Crochet, est un personnage régulier puis principal à compter de cette saison.
-2015 : Peter and Wendy, téléfilm de Diarmuid Lawrence.
-Musique
-1950 : Peter Pan, comédie musicale américaine, composée par Leonard Bernstein.
+2015 : Peter and Wendy, téléfilm de Diarmuid Lawrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_et_Wendy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1950 : Peter Pan, comédie musicale américaine, composée par Leonard Bernstein.
 1954 : Peter Pan, comédie musicale américaine, composée par Carolyn Leigh et Mark Charlap.
 2006 : The Wendy Trilogy, sur l'album folk Sirens de S. J. Tucker. Ces trois chansons (Wendy On Board, Red-Handed Jill et Green-Eyed Sue - Sue's Jig) adoptent le point de vue de Wendy.
 2012 : Finding Neverland, comédie musicale britannique, composée par Gary Barlow, Eliot Kennedy et James Graham, adaptée de la pièce The Man Who Was Peter Pan d'Allan Knee (1998) et centrée sur la création de Peter Pan.
